--- a/20191117-家庭网络结构信息.xlsx
+++ b/20191117-家庭网络结构信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pillanangel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\个人\Github\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A362F57B-BFE5-46B4-93EF-EAF90FC6C22F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F624E73F-7635-4871-B869-94708FB43B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,163 +352,164 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>192.168.1.52</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.21</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.22</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.23</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>万兆网口
+192.168.1.31</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>客卧</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPMI管理口</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jails预留</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.36</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.37</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-20</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-30</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>53-70</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>99待修改</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.45</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>千兆网口
+192.168.1.32/33</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>双网卡</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>34-35</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.38</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>39-44</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>71-100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他设备</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二网口ixl1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一网口ixl0-Rsync模块服务</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transmission-GUI</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEB控制</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS Audio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程管理模块</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程登录控制</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.46</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二网口预留</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>47-50</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>enp2s0</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>enp3s0</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>无线APAP</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>IP地址规划：
 核心网络设备1-20；
 无线AP：21-30；
 各类服务器：31-50；
 PC客户端：51-70；
 其他设备：71-100；
-DHCP地址池：101-254</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.52</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.21</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.22</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.23</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>万兆网口
-192.168.1.31</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>客卧</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPMI管理口</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jails预留</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.36</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.37</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>预留</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-20</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>24-30</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>53-70</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>99待修改</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.45</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>千兆网口
-192.168.1.32/33</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>双网卡</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>34-35</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.38</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>39-44</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>71-100</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他设备</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二网口ixl1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一网口ixl0-Rsync模块服务</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transmission-GUI</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEB控制</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS Audio</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程管理模块</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程登录控制</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.46</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二网口预留</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>47-50</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>enp2s0</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>enp3s0</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>无线APAP</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚本</t>
+DHCP地址池：101-254;
+VPN地址池：192.168.2.2-254;</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1068,35 +1069,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1488,7 +1489,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1507,21 +1508,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="A1" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1606,7 +1607,7 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="10"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="3"/>
       <c r="K4" s="5"/>
       <c r="L4" s="3"/>
@@ -1635,7 +1636,7 @@
       <c r="H5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="8" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="3"/>
@@ -1658,14 +1659,14 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="3"/>
       <c r="K6" s="5" t="s">
         <v>46</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1681,7 +1682,7 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="10"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="3"/>
       <c r="K7" s="5"/>
       <c r="L7" s="3"/>
@@ -1710,7 +1711,7 @@
       <c r="H8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="8" t="s">
         <v>47</v>
       </c>
       <c r="J8" s="3"/>
@@ -1721,26 +1722,26 @@
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="17"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>20</v>
@@ -1760,8 +1761,8 @@
       <c r="H10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>85</v>
+      <c r="I10" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="5"/>
@@ -1789,8 +1790,8 @@
       <c r="H11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>86</v>
+      <c r="I11" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="5"/>
@@ -1818,8 +1819,8 @@
       <c r="H12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>87</v>
+      <c r="I12" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="5"/>
@@ -1829,21 +1830,21 @@
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="17"/>
+      <c r="C13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="15"/>
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
@@ -1868,8 +1869,8 @@
       <c r="H14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>88</v>
+      <c r="I14" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="5"/>
@@ -1891,14 +1892,14 @@
       <c r="H15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>100</v>
+      <c r="I15" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="5"/>
       <c r="L15" s="3"/>
       <c r="M15" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1914,7 +1915,7 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="3"/>
       <c r="K16" s="5"/>
       <c r="L16" s="3"/>
@@ -1923,21 +1924,21 @@
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="17"/>
+      <c r="C17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="15"/>
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
@@ -1952,7 +1953,7 @@
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="10"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="3"/>
       <c r="K18" s="5"/>
       <c r="L18" s="3"/>
@@ -1968,19 +1969,19 @@
         <v>31</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="10" t="s">
-        <v>92</v>
+      <c r="I19" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="5"/>
@@ -1993,12 +1994,12 @@
       <c r="C20" s="7"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="10" t="s">
-        <v>93</v>
+      <c r="I20" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="5"/>
@@ -2011,21 +2012,21 @@
       <c r="C21" s="7"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="10" t="s">
-        <v>103</v>
+      <c r="I21" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="5"/>
       <c r="L21" s="3"/>
       <c r="M21" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2033,21 +2034,21 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14" t="s">
+      <c r="E22" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="17"/>
+      <c r="I22" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="15"/>
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
@@ -2070,8 +2071,8 @@
       <c r="H23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="10" t="s">
-        <v>99</v>
+      <c r="I23" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J23" s="3">
         <v>51415</v>
@@ -2083,7 +2084,7 @@
         <v>51415</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2092,15 +2093,15 @@
       <c r="C24" s="7"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="10" t="s">
-        <v>99</v>
+      <c r="I24" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J24" s="3">
         <v>9091</v>
@@ -2128,8 +2129,8 @@
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="10" t="s">
-        <v>99</v>
+      <c r="I25" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J25" s="3">
         <v>1688</v>
@@ -2143,42 +2144,42 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="15" t="s">
+      <c r="E26" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="12" t="s">
-        <v>117</v>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14" t="s">
+      <c r="C27" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="17"/>
+      <c r="I27" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="15"/>
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
@@ -2203,7 +2204,7 @@
       <c r="H28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="8" t="s">
         <v>80</v>
       </c>
       <c r="J28" s="3"/>
@@ -2232,8 +2233,8 @@
       <c r="H29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="10" t="s">
-        <v>84</v>
+      <c r="I29" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="5"/>
@@ -2243,42 +2244,42 @@
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="17"/>
+      <c r="C30" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="11"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="15"/>
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="J31" s="13"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="17"/>
+      <c r="C31" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31" s="11"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="15"/>
     </row>
     <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
@@ -2299,7 +2300,7 @@
       <c r="H32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="8" t="s">
         <v>82</v>
       </c>
       <c r="J32" s="3"/>
@@ -2324,7 +2325,7 @@
       <c r="H33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="8" t="s">
         <v>82</v>
       </c>
       <c r="J33" s="3"/>
@@ -2341,19 +2342,19 @@
         <v>42</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="8" t="s">
         <v>82</v>
       </c>
       <c r="J34" s="3"/>

--- a/20191117-家庭网络结构信息.xlsx
+++ b/20191117-家庭网络结构信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20352"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pillanangel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A362F57B-BFE5-46B4-93EF-EAF90FC6C22F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D4C1DA-DCFA-45F2-82AA-0F2312243BD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="3315" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,163 +352,164 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>192.168.1.52</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.21</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.22</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.23</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>万兆网口
+192.168.1.31</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>客卧</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPMI管理口</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jails预留</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.36</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.37</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-20</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-30</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>53-70</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>99待修改</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.45</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>千兆网口
+192.168.1.32/33</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>双网卡</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>34-35</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.38</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>39-44</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>71-100</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他设备</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二网口ixl1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一网口ixl0-Rsync模块服务</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transmission-GUI</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEB控制</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS Audio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程管理模块</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程登录控制</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.1.46</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二网口预留</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>47-50</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>enp2s0</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>enp3s0</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>无线APAP</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>IP地址规划：
 核心网络设备1-20；
 无线AP：21-30；
 各类服务器：31-50；
 PC客户端：51-70；
 其他设备：71-100；
-DHCP地址池：101-254</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.52</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.21</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.22</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.23</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>万兆网口
-192.168.1.31</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>客卧</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>IPMI管理口</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jails预留</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.36</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.37</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>预留</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-20</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>24-30</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>53-70</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>99待修改</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.45</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>千兆网口
-192.168.1.32/33</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>双网卡</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>34-35</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.38</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>39-44</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>71-100</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他设备</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二网口ixl1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一网口ixl0-Rsync模块服务</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transmission-GUI</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEB控制</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS Audio</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程管理模块</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程登录控制</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.1.46</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二网口预留</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>47-50</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>enp2s0</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>enp3s0</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>无线APAP</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚本</t>
+DHCP地址池：101-200；
+VPN地址池：192.168.2.2-254；</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1068,35 +1069,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1488,7 +1489,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1507,21 +1508,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="A1" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -1606,7 +1607,7 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="10"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="3"/>
       <c r="K4" s="5"/>
       <c r="L4" s="3"/>
@@ -1635,7 +1636,7 @@
       <c r="H5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="8" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="3"/>
@@ -1658,14 +1659,14 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="10"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="3"/>
       <c r="K6" s="5" t="s">
         <v>46</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1681,7 +1682,7 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="10"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="3"/>
       <c r="K7" s="5"/>
       <c r="L7" s="3"/>
@@ -1710,7 +1711,7 @@
       <c r="H8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="8" t="s">
         <v>47</v>
       </c>
       <c r="J8" s="3"/>
@@ -1721,26 +1722,26 @@
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="17"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>20</v>
@@ -1760,8 +1761,8 @@
       <c r="H10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>85</v>
+      <c r="I10" s="8" t="s">
+        <v>84</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="5"/>
@@ -1789,8 +1790,8 @@
       <c r="H11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>86</v>
+      <c r="I11" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="5"/>
@@ -1818,8 +1819,8 @@
       <c r="H12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>87</v>
+      <c r="I12" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="5"/>
@@ -1829,21 +1830,21 @@
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="17"/>
+      <c r="C13" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="15"/>
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
@@ -1868,8 +1869,8 @@
       <c r="H14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>88</v>
+      <c r="I14" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="5"/>
@@ -1891,14 +1892,14 @@
       <c r="H15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>100</v>
+      <c r="I15" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="5"/>
       <c r="L15" s="3"/>
       <c r="M15" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1914,7 +1915,7 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="10"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="3"/>
       <c r="K16" s="5"/>
       <c r="L16" s="3"/>
@@ -1923,21 +1924,21 @@
     <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="17"/>
+      <c r="C17" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="15"/>
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
@@ -1952,7 +1953,7 @@
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="10"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="3"/>
       <c r="K18" s="5"/>
       <c r="L18" s="3"/>
@@ -1968,19 +1969,19 @@
         <v>31</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>76</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="10" t="s">
-        <v>92</v>
+      <c r="I19" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="5"/>
@@ -1993,12 +1994,12 @@
       <c r="C20" s="7"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="10" t="s">
-        <v>93</v>
+      <c r="I20" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="5"/>
@@ -2011,21 +2012,21 @@
       <c r="C21" s="7"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="10" t="s">
-        <v>103</v>
+      <c r="I21" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="5"/>
       <c r="L21" s="3"/>
       <c r="M21" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2033,21 +2034,21 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14" t="s">
+      <c r="E22" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="17"/>
+      <c r="I22" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="15"/>
     </row>
     <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
@@ -2070,8 +2071,8 @@
       <c r="H23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="10" t="s">
-        <v>99</v>
+      <c r="I23" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J23" s="3">
         <v>51415</v>
@@ -2083,7 +2084,7 @@
         <v>51415</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2092,15 +2093,15 @@
       <c r="C24" s="7"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="10" t="s">
-        <v>99</v>
+      <c r="I24" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J24" s="3">
         <v>9091</v>
@@ -2128,8 +2129,8 @@
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="10" t="s">
-        <v>99</v>
+      <c r="I25" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J25" s="3">
         <v>1688</v>
@@ -2143,42 +2144,42 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="15" t="s">
+      <c r="E26" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="13"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="12" t="s">
-        <v>117</v>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14" t="s">
+      <c r="C27" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="17"/>
+      <c r="I27" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="15"/>
     </row>
     <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
@@ -2203,7 +2204,7 @@
       <c r="H28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="8" t="s">
         <v>80</v>
       </c>
       <c r="J28" s="3"/>
@@ -2232,8 +2233,8 @@
       <c r="H29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="10" t="s">
-        <v>84</v>
+      <c r="I29" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29" s="5"/>
@@ -2243,42 +2244,42 @@
     <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="J30" s="13"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="17"/>
+      <c r="C30" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="11"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="15"/>
     </row>
     <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="J31" s="13"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="17"/>
+      <c r="C31" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="J31" s="11"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="15"/>
     </row>
     <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
@@ -2299,7 +2300,7 @@
       <c r="H32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="8" t="s">
         <v>82</v>
       </c>
       <c r="J32" s="3"/>
@@ -2324,7 +2325,7 @@
       <c r="H33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I33" s="10" t="s">
+      <c r="I33" s="8" t="s">
         <v>82</v>
       </c>
       <c r="J33" s="3"/>
@@ -2341,19 +2342,19 @@
         <v>42</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="I34" s="8" t="s">
         <v>82</v>
       </c>
       <c r="J34" s="3"/>
@@ -2452,7 +2453,7 @@
       <c r="M40" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E5:L39">
+  <sortState ref="E5:L39">
     <sortCondition ref="I5:I39"/>
     <sortCondition ref="J5:J39"/>
   </sortState>

--- a/20191117-家庭网络结构信息.xlsx
+++ b/20191117-家庭网络结构信息.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personals\Gitclone\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D4C1DA-DCFA-45F2-82AA-0F2312243BD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66D4457-0162-40EF-9207-C70A7B51AD32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="3315" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="1140" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="网络结构" sheetId="1" r:id="rId1"/>
+    <sheet name="端口映射" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$5:$K$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">网络结构!$E$5:$K$35</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="120">
   <si>
     <t>用途</t>
   </si>
@@ -49,457 +49,453 @@
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>网关</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>设备</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>服务</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>系统</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>网络入口</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Mikrotik RB960PGS HEX POE</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>交换机</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Mikrotik CRS326-24G-2S+</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>SwOS</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>位置</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Mikrotik wAP ac RBwAPG-5HacT2HnD</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Mikrotik cAP ac RBcAPGi-5acD2nD</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>RouterOS</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>餐厅玄关</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>HUAWEI MA5671</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>PC</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Asrock X370</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>餐厅</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Windows 10 LTSC</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Windows 10 PRO</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>NAS</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>QNAP TS870PRO</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Freenas</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>QTS</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Supermicro X11SDV-4C-TLN2F</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Aaeon UPS-GWS01(Up Squared)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>HTPC</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>客厅电视</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Asus Q87T CSM</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Aurender N100S</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Aurender OS</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Music Server</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>电处</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>PS Audio PowerPlant P10</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>192.168.1.1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>联通光纤EPON</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>客厅机柜</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>公网动态</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>192.168.1.2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Debian-OMV</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Transmission-daemon</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>PT下载</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>客卧书房</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>客厅</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>待定</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3322脚本DDNS</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>主路由、DHCP、NAT</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>远程控制PT下载</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>我的机器</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>老婆的机器</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Asus Z87</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>汇聚网络</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>主交换</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>主NAS</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>SAMBA</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>PLEX</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>满足PC端、HTPC、移动端看片</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>vlmcsd</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>IPTV:LAN4</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>PPPOE拨号上网:LAN1-3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>未开通</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>CAPSMAN</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>POE输出并控制无线AP</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>无线接入</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Rsync推送</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>备份源</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>备份客户端</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>WOL</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>远程开机，避免频繁打开机柜。</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>工作娱乐</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>192.168.1.51</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>KMS服务器</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>DHCP获取</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>192.168.1.52</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>192.168.1.21</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>192.168.1.22</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>192.168.1.23</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>万兆网口
 192.168.1.31</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>客卧</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>IPMI管理口</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Jails预留</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>192.168.1.36</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>192.168.1.37</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>预留</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>3-20</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>24-30</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>53-70</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>99待修改</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>192.168.1.45</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>千兆网口
 192.168.1.32/33</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>双网卡</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>34-35</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>192.168.1.38</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>39-44</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>71-100</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>其他设备</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>第二网口ixl1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>第一网口ixl0-Rsync模块服务</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>Transmission-GUI</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>WEB控制</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>PS Audio</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>远程管理模块</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>远程登录控制</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>192.168.1.46</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>第二网口预留</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>47-50</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>enp2s0</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>enp3s0</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>无线APAP</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>脚本</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>IP地址规划：
@@ -510,7 +506,7 @@
 其他设备：71-100；
 DHCP地址池：101-200；
 VPN地址池：192.168.2.2-254；</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -528,14 +524,6 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -670,6 +658,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -920,127 +915,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1048,55 +1043,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1489,7 +1484,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="A2" sqref="A2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1503,954 +1498,974 @@
     <col min="7" max="7" width="8.875" customWidth="1"/>
     <col min="9" max="9" width="17.625" customWidth="1"/>
     <col min="10" max="10" width="7.75" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="12" max="12" width="20.375" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
+      <c r="A1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="5" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="6"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="6"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="5" t="s">
+      <c r="J5" s="1"/>
+      <c r="K5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="3"/>
-      <c r="M5" s="6"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="5" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="7" t="s">
-        <v>119</v>
+      <c r="L6" s="1"/>
+      <c r="M6" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="6"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="6"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="13" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="15"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="10" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="6"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="6"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="6"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="13" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="15"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="6"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="2">
+        <v>9</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="1">
+        <v>50010</v>
+      </c>
+      <c r="M15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="7" t="s">
+    </row>
+    <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="1">
+        <v>53694</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="1">
+        <v>53694</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="11" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="10" t="s">
+      <c r="J17" s="9"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="13"/>
+    </row>
+    <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23" s="1">
+        <v>51415</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L23" s="1">
+        <v>51415</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="1">
+        <v>9091</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L24" s="1">
+        <v>9091</v>
+      </c>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1688</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" s="9"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="15"/>
-    </row>
-    <row r="18" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="D27" s="9"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="13"/>
+    </row>
+    <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="3" t="s">
+      <c r="I28" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="2">
+        <v>9</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="1">
+        <v>50009</v>
+      </c>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I22" s="13" t="s">
+      <c r="I29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" s="1">
+        <v>9</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29" s="1">
+        <v>50011</v>
+      </c>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="13"/>
+    </row>
+    <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="15"/>
-    </row>
-    <row r="23" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="J31" s="9"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="13"/>
+    </row>
+    <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J23" s="3">
-        <v>51415</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L23" s="3">
-        <v>51415</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="I32" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J24" s="3">
-        <v>9091</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L24" s="3">
-        <v>9091</v>
-      </c>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="J25" s="3">
-        <v>1688</v>
-      </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="15"/>
-    </row>
-    <row r="28" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="3" t="s">
+      <c r="E34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="6"/>
-    </row>
-    <row r="29" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="6"/>
-    </row>
-    <row r="30" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" s="11"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="15"/>
-    </row>
-    <row r="31" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="J31" s="11"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="15"/>
-    </row>
-    <row r="32" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I32" s="8" t="s">
+      <c r="I34" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="6"/>
-    </row>
-    <row r="33" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="6"/>
-    </row>
-    <row r="34" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="6"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="4"/>
     </row>
     <row r="35" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="6"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="4"/>
     </row>
     <row r="36" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="6"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="4"/>
     </row>
     <row r="37" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="6"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="4"/>
     </row>
     <row r="38" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="6"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="4"/>
     </row>
     <row r="39" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="6"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="4"/>
     </row>
     <row r="40" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="6"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="4"/>
     </row>
   </sheetData>
   <sortState ref="E5:L39">
@@ -2460,7 +2475,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -2471,11 +2486,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -2490,7 +2507,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/20191117-家庭网络结构信息.xlsx
+++ b/20191117-家庭网络结构信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\个人\Github\Happy2Death\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F624E73F-7635-4871-B869-94708FB43B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74019F9D-76CA-42B1-9C18-E70EC67562C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="122">
   <si>
     <t>用途</t>
   </si>
@@ -510,6 +510,10 @@
 其他设备：71-100；
 DHCP地址池：101-254;
 VPN地址池：192.168.2.2-254;</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>X520</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -1488,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1875,7 +1879,9 @@
       <c r="J14" s="3"/>
       <c r="K14" s="5"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="6"/>
+      <c r="M14" s="7" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
